--- a/plate map uni chrom update.xlsx
+++ b/plate map uni chrom update.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Experiment Title:</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>17-05-21-CTB2</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Phosphate</t>
+  </si>
+  <si>
+    <t>pH</t>
   </si>
 </sst>
 </file>
@@ -896,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -907,9 +916,10 @@
     <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -930,8 +940,14 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -944,8 +960,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -958,8 +980,14 @@
       <c r="D4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -972,8 +1000,14 @@
       <c r="D5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -986,8 +1020,14 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1000,8 +1040,14 @@
       <c r="D7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1013,6 +1059,12 @@
       </c>
       <c r="D8">
         <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1077,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+      <selection activeCell="H9" sqref="H1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1034,6 +1086,7 @@
     <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,6 +1125,9 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
+      <c r="E2">
+        <v>85710</v>
+      </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
@@ -1089,8 +1145,14 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
+      <c r="E3">
+        <v>821.93</v>
+      </c>
       <c r="F3" t="s">
         <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,6 +1167,9 @@
       </c>
       <c r="D4" t="s">
         <v>27</v>
+      </c>
+      <c r="E4">
+        <v>49480</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
